--- a/inventory_back/device/file/inv-3-blank.xlsx
+++ b/inventory_back/device/file/inv-3-blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Рабочий стол\inventory-app\inventory_back\device\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillilin/Documents/универ/inventory-app/inventory_back/device/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE89AC9-004B-420E-A588-A12E253D01D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330B42F-D812-6B47-B735-FFED5B835C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="стр1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">стр3!$A$1:$AF$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -278,8 +269,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -889,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -897,9 +888,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -908,8 +896,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -920,7 +907,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -941,15 +927,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -965,7 +948,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,10 +957,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -992,22 +975,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,7 +1000,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,15 +1010,107 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1064,211 +1136,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1289,20 +1187,90 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1315,6 +1283,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1618,38 +1588,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="2.5" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
     <col min="14" max="14" width="1" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" customWidth="1"/>
-    <col min="18" max="18" width="0.7109375" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" customWidth="1"/>
-    <col min="22" max="22" width="1.140625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.5" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" customWidth="1"/>
+    <col min="18" max="18" width="0.6640625" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" customWidth="1"/>
+    <col min="22" max="22" width="1.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1675,7 +1645,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1701,7 +1671,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1715,10 +1685,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1727,7 +1697,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1746,14 +1716,14 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="72"/>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="75"/>
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1774,118 +1744,118 @@
         <v>8</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="87" t="s">
+      <c r="S5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="89"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="47"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="69"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1">
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="75"/>
-    </row>
-    <row r="7" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
+      <c r="S6" s="76"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="78"/>
+    </row>
+    <row r="7" spans="1:22" ht="8.25" customHeight="1">
+      <c r="A7" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
       <c r="S7" s="82"/>
       <c r="T7" s="83"/>
       <c r="U7" s="83"/>
       <c r="V7" s="84"/>
     </row>
-    <row r="8" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
-    </row>
-    <row r="9" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
+    <row r="8" spans="1:22" ht="10.5" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="78"/>
+    </row>
+    <row r="9" spans="1:22" ht="8.25" customHeight="1">
+      <c r="A9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="100" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="10"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="82"/>
       <c r="T9" s="83"/>
       <c r="U9" s="83"/>
       <c r="V9" s="84"/>
     </row>
-    <row r="10" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="10.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1898,18 +1868,18 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
-    </row>
-    <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="76"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="78"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -1917,63 +1887,63 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="23" t="s">
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="75"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="8"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="78"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="23" t="s">
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="81"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="8"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="63"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1984,22 +1954,22 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="81"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="63"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2010,22 +1980,22 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="81"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="1"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="63"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2040,18 +2010,18 @@
         <v>16</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="92"/>
-    </row>
-    <row r="16" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="70"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="72"/>
+    </row>
+    <row r="16" spans="1:22" ht="9" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2064,12 +2034,12 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2082,62 +2052,62 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="76" t="s">
+      <c r="M17" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="76" t="s">
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="77"/>
-      <c r="T17" s="78"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="81"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="17" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="66"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="91"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2149,188 +2119,188 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
+    <row r="20" spans="1:22" ht="15" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
       <c r="V20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+    </row>
+    <row r="22" spans="1:22" ht="16">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-    </row>
-    <row r="24" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+    </row>
+    <row r="24" spans="1:22" ht="30.75" customHeight="1">
+      <c r="A24" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="18" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-    </row>
-    <row r="26" spans="1:22" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+    </row>
+    <row r="26" spans="1:22" ht="29" customHeight="1">
+      <c r="A26" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2354,134 +2324,134 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="16">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="69" t="s">
+      <c r="F29" s="64"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="69" t="s">
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="69"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="69" t="s">
+      <c r="M31" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="16">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="50" t="s">
+      <c r="I32" s="43"/>
+      <c r="J32" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
       <c r="Q32" s="4" t="s">
         <v>66</v>
       </c>
@@ -2491,7 +2461,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2517,20 +2487,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="M9:Q10"/>
-    <mergeCell ref="F11:P11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="F12:P12"/>
-    <mergeCell ref="A20:U20"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="D22:V22"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="C25:V25"/>
+    <mergeCell ref="C21:V21"/>
+    <mergeCell ref="M31:S31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="C23:V23"/>
+    <mergeCell ref="A26:V26"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="M17:Q17"/>
@@ -2541,6 +2507,22 @@
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="S7:V8"/>
     <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="A20:U20"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="M9:Q10"/>
+    <mergeCell ref="F11:P11"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="M29:S29"/>
@@ -2549,18 +2531,6 @@
     <mergeCell ref="M28:S28"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="C23:V23"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="A26:V26"/>
-    <mergeCell ref="D22:V22"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="C25:V25"/>
-    <mergeCell ref="C21:V21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2570,41 +2540,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="U7" sqref="U7:W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" customWidth="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.5" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.1640625" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="1.5" customWidth="1"/>
+    <col min="23" max="23" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="27.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2621,506 +2591,480 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="134" t="s">
+    <row r="2" spans="1:23" ht="26.25" customHeight="1">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="134" t="s">
+      <c r="G2" s="99"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="135" t="s">
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="134" t="s">
+      <c r="O2" s="99"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="135"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="134" t="s">
+      <c r="R2" s="99"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="136"/>
-    </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="137" t="s">
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="97"/>
+    </row>
+    <row r="3" spans="1:23" s="24" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="110"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="97"/>
+      <c r="I3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="J3" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="141" t="s">
+      <c r="K3" s="99"/>
+      <c r="L3" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="142"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="109"/>
+      <c r="N3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="134" t="s">
+      <c r="O3" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="13" t="s">
+      <c r="P3" s="97"/>
+      <c r="Q3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="136"/>
-      <c r="T3" s="13" t="s">
+      <c r="S3" s="97"/>
+      <c r="T3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="134" t="s">
+      <c r="U3" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="135"/>
-      <c r="W3" s="136"/>
-    </row>
-    <row r="4" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132">
-        <v>1</v>
-      </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132">
-        <v>2</v>
-      </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="29">
-        <v>3</v>
-      </c>
-      <c r="G4" s="133">
-        <v>4</v>
-      </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="30">
-        <v>5</v>
-      </c>
-      <c r="J4" s="132">
-        <v>6</v>
-      </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133">
-        <v>7</v>
-      </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="30">
-        <v>8</v>
-      </c>
-      <c r="O4" s="133">
-        <v>9</v>
-      </c>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="30">
-        <v>10</v>
-      </c>
-      <c r="R4" s="133">
-        <v>11</v>
-      </c>
-      <c r="S4" s="133"/>
-      <c r="T4" s="29">
-        <v>12</v>
-      </c>
-      <c r="U4" s="132">
-        <v>13</v>
-      </c>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-    </row>
-    <row r="5" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-    </row>
-    <row r="6" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="122"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-    </row>
-    <row r="7" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="107"/>
-    </row>
-    <row r="8" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="107"/>
-    </row>
-    <row r="9" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-    </row>
-    <row r="10" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-    </row>
-    <row r="11" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-    </row>
-    <row r="12" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-    </row>
-    <row r="13" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-    </row>
-    <row r="14" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-    </row>
-    <row r="15" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-    </row>
-    <row r="16" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-    </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-    </row>
-    <row r="18" spans="1:23" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="116" t="s">
+      <c r="V3" s="99"/>
+      <c r="W3" s="97"/>
+    </row>
+    <row r="4" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+    </row>
+    <row r="5" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+    </row>
+    <row r="6" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+    </row>
+    <row r="7" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="117"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="128"/>
+    </row>
+    <row r="8" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="117"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="128"/>
+    </row>
+    <row r="9" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+    </row>
+    <row r="10" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="123"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+    </row>
+    <row r="11" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+    </row>
+    <row r="12" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+    </row>
+    <row r="13" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+    </row>
+    <row r="14" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="112"/>
+      <c r="S14" s="123"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+    </row>
+    <row r="15" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="123"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="112"/>
+      <c r="V15" s="112"/>
+      <c r="W15" s="112"/>
+    </row>
+    <row r="16" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
+    </row>
+    <row r="17" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="112"/>
+    </row>
+    <row r="18" spans="1:23" s="27" customFormat="1" ht="16">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="107"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="P18" s="134"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="136"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="128"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3129,7 +3073,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3145,7 +3089,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -3156,7 +3100,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3172,7 +3116,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="16">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3183,50 +3127,50 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="69" t="s">
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+    </row>
+    <row r="23" spans="1:23" ht="16">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3238,21 +3182,21 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3263,23 +3207,23 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="69" t="s">
+      <c r="K24" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+    </row>
+    <row r="25" spans="1:23" ht="16">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3288,27 +3232,27 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="49" t="s">
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="147" t="s">
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="W25" s="147"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W25" s="95"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3317,20 +3261,20 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="69" t="s">
+      <c r="I26" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-    </row>
-    <row r="27" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+    </row>
+    <row r="27" spans="1:23" ht="34.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3349,120 +3293,21 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="14" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="I25:R25"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="K21:W21"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="I26:R26"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:H17"/>
@@ -3484,16 +3329,115 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="R11:S11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="I25:R25"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="K21:W21"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U17:W17"/>
     <mergeCell ref="K22:W22"/>
-    <mergeCell ref="I26:R26"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3503,48 +3447,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="1.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="2.83203125" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="2.1640625" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="1.42578125" customWidth="1"/>
-    <col min="14" max="14" width="0.85546875" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="13" max="13" width="1.5" customWidth="1"/>
+    <col min="14" max="14" width="0.83203125" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
     <col min="16" max="16" width="2" customWidth="1"/>
-    <col min="17" max="17" width="3.5703125" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" customWidth="1"/>
-    <col min="19" max="19" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="3.5" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="19" max="19" width="2.5" customWidth="1"/>
     <col min="20" max="20" width="2" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="1.85546875" customWidth="1"/>
-    <col min="23" max="23" width="2.140625" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" customWidth="1"/>
-    <col min="25" max="25" width="9.5703125" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" customWidth="1"/>
-    <col min="27" max="27" width="5.85546875" customWidth="1"/>
-    <col min="28" max="28" width="0.7109375" customWidth="1"/>
-    <col min="29" max="29" width="4.42578125" customWidth="1"/>
-    <col min="30" max="30" width="6.28515625" customWidth="1"/>
-    <col min="31" max="31" width="0.85546875" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="5.5" customWidth="1"/>
+    <col min="22" max="22" width="1.83203125" customWidth="1"/>
+    <col min="23" max="23" width="2.1640625" customWidth="1"/>
+    <col min="24" max="24" width="4.5" customWidth="1"/>
+    <col min="25" max="25" width="9.5" customWidth="1"/>
+    <col min="26" max="26" width="5.5" customWidth="1"/>
+    <col min="27" max="27" width="5.83203125" customWidth="1"/>
+    <col min="28" max="28" width="0.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="6.33203125" customWidth="1"/>
+    <col min="31" max="31" width="0.83203125" customWidth="1"/>
+    <col min="32" max="32" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="16">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3576,11 +3520,11 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="14">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>41</v>
@@ -3616,7 +3560,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="14">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3630,29 +3574,29 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="152"/>
-    </row>
-    <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="141"/>
+      <c r="AE3" s="141"/>
+      <c r="AF3" s="141"/>
+    </row>
+    <row r="4" spans="1:32" ht="14">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3664,31 +3608,31 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-    </row>
-    <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+    </row>
+    <row r="5" spans="1:32" ht="14">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3702,29 +3646,29 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="153"/>
-    </row>
-    <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="142"/>
+    </row>
+    <row r="6" spans="1:32" ht="14">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3736,31 +3680,31 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-    </row>
-    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+    </row>
+    <row r="7" spans="1:32" ht="14">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3771,109 +3715,109 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
-      <c r="AB7" s="153"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="153"/>
-      <c r="AF7" s="153"/>
-    </row>
-    <row r="8" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="142"/>
+      <c r="AD7" s="142"/>
+      <c r="AE7" s="142"/>
+      <c r="AF7" s="142"/>
+    </row>
+    <row r="8" spans="1:32" ht="14">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-    </row>
-    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+    </row>
+    <row r="9" spans="1:32" ht="14">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="154" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="52" t="s">
+      <c r="AC9" s="143"/>
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1"/>
@@ -3906,293 +3850,293 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="14">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="140"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="14">
       <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="14">
       <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="140"/>
+      <c r="AC13" s="140"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
-    <row r="14" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="69" t="s">
+      <c r="U14" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
-    <row r="15" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-    </row>
-    <row r="16" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="140"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+      <c r="AC15" s="140"/>
+    </row>
+    <row r="16" spans="1:32" ht="14">
       <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="69" t="s">
+      <c r="M16" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="69" t="s">
+      <c r="U16" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-    </row>
-    <row r="18" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
+      <c r="S17" s="140"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="140"/>
+      <c r="V17" s="140"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="140"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="140"/>
+      <c r="AB17" s="140"/>
+      <c r="AC17" s="140"/>
+    </row>
+    <row r="18" spans="1:32" ht="14">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="69" t="s">
+      <c r="U18" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>45</v>
@@ -4216,23 +4160,23 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="150"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="22" t="s">
+      <c r="V19" s="1"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AA19" s="150"/>
-      <c r="AB19" s="150"/>
-      <c r="AC19" s="150"/>
-      <c r="AD19" s="150"/>
-      <c r="AE19" s="149" t="s">
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="AF19" s="149"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF19" s="144"/>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -4256,8 +4200,8 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -4265,10 +4209,10 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="24"/>
+      <c r="AE20" s="21"/>
       <c r="AF20" s="1"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -4304,7 +4248,7 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4338,9 +4282,9 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
     </row>
-    <row r="23" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="14">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="1"/>
@@ -4372,210 +4316,210 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="20"/>
-    </row>
-    <row r="24" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF23" s="17"/>
+    </row>
+    <row r="24" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="140"/>
+      <c r="V24" s="140"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="140"/>
+      <c r="Z24" s="140"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="140"/>
+      <c r="AC24" s="140"/>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="69" t="s">
+      <c r="M25" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="69" t="s">
+      <c r="U25" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
-    <row r="26" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="140"/>
+      <c r="AA26" s="140"/>
+      <c r="AB26" s="140"/>
+      <c r="AC26" s="140"/>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="69" t="s">
+      <c r="M27" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="69" t="s">
+      <c r="U27" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
-    <row r="28" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="140"/>
+      <c r="W28" s="140"/>
+      <c r="X28" s="140"/>
+      <c r="Y28" s="140"/>
+      <c r="Z28" s="140"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="140"/>
+      <c r="AC28" s="140"/>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="69" t="s">
+      <c r="M29" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="69" t="s">
+      <c r="U29" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4609,31 +4553,31 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
     </row>
-    <row r="31" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D31" s="17"/>
-      <c r="F31" s="54" t="s">
+    <row r="31" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="D31" s="14"/>
+      <c r="F31" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="55" t="s">
+      <c r="G31" s="48"/>
+      <c r="H31" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="19" t="s">
+      <c r="I31" s="50"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T31" s="19"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4667,129 +4611,127 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
     </row>
-    <row r="33" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="19" t="s">
+    <row r="33" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="B33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-    </row>
-    <row r="34" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="19" t="s">
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+    </row>
+    <row r="34" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="B34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="151"/>
-      <c r="V34" s="151"/>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="151"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
-    </row>
-    <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="140"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="140"/>
+      <c r="R34" s="140"/>
+      <c r="S34" s="140"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="140"/>
+      <c r="V34" s="140"/>
+      <c r="W34" s="140"/>
+      <c r="X34" s="140"/>
+      <c r="Y34" s="140"/>
+      <c r="Z34" s="140"/>
+      <c r="AA34" s="140"/>
+      <c r="AB34" s="140"/>
+      <c r="AC34" s="140"/>
+    </row>
+    <row r="35" spans="1:32" ht="16.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="69" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="69" t="s">
+      <c r="U35" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="F36" s="54" t="s">
+    <row r="36" spans="1:32" s="1" customFormat="1" ht="14">
+      <c r="F36" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="55" t="s">
+      <c r="G36" s="48"/>
+      <c r="H36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="19" t="s">
+      <c r="I36" s="50"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="140"/>
+      <c r="N36" s="140"/>
+      <c r="O36" s="140"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="140"/>
+      <c r="R36" s="140"/>
+      <c r="S36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="57"/>
-    </row>
-    <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="50"/>
+    </row>
+    <row r="37" spans="1:32" ht="3.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4825,50 +4767,16 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="U35:AC35"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="U28:AC28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="U29:AC29"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="U27:AC27"/>
-    <mergeCell ref="U34:AC34"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="U15:AC15"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="U16:AC16"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="U12:AC12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="U11:AC11"/>
-    <mergeCell ref="U13:AC13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="L3:AF3"/>
-    <mergeCell ref="L5:AF5"/>
-    <mergeCell ref="I7:AF7"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="D9:AA9"/>
-    <mergeCell ref="L4:AF4"/>
-    <mergeCell ref="L6:AF6"/>
-    <mergeCell ref="I8:AF8"/>
-    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="U25:AC25"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="U24:AC24"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="U14:AC14"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="M24:S24"/>
     <mergeCell ref="J31:O31"/>
     <mergeCell ref="E15:K15"/>
@@ -4879,16 +4787,50 @@
     <mergeCell ref="E25:K25"/>
     <mergeCell ref="M18:S18"/>
     <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="U14:AC14"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="U25:AC25"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="U24:AC24"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="L3:AF3"/>
+    <mergeCell ref="L5:AF5"/>
+    <mergeCell ref="I7:AF7"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="D9:AA9"/>
+    <mergeCell ref="L4:AF4"/>
+    <mergeCell ref="L6:AF6"/>
+    <mergeCell ref="I8:AF8"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="U12:AC12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="U11:AC11"/>
+    <mergeCell ref="U13:AC13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="U15:AC15"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="U16:AC16"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="U27:AC27"/>
+    <mergeCell ref="U35:AC35"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="U28:AC28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="U29:AC29"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="U34:AC34"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="M35:S35"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/inventory_back/device/file/inv-3-blank.xlsx
+++ b/inventory_back/device/file/inv-3-blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Рабочий стол\inventory-app\inventory_back\device\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Рабочий стол\GIT\inventory-app\inventory_back\device\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE89AC9-004B-420E-A588-A12E253D01D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F26F0F-BBC0-4946-BCD4-235B9DF2DEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="стр1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">стр3!$A$1:$AF$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -278,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -889,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -897,9 +888,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -908,8 +896,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -920,7 +907,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -941,15 +927,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -965,7 +948,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -974,10 +957,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -992,22 +975,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1020,7 +1000,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1030,21 +1010,95 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1061,90 +1115,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,16 +1142,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1190,7 +1160,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,67 +1169,46 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1289,23 +1238,44 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1618,7 +1588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1715,10 +1685,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1746,12 +1716,12 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="70" t="s">
+      <c r="S4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="72"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1774,116 +1744,116 @@
         <v>8</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="87" t="s">
+      <c r="S5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="89"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="77"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="47"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="1"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="75"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="64"/>
     </row>
     <row r="7" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="84"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="73"/>
     </row>
     <row r="8" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
     </row>
     <row r="9" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="100" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="73"/>
     </row>
     <row r="10" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -1898,16 +1868,16 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="64"/>
     </row>
     <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1917,27 +1887,27 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="23" t="s">
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R11" s="9"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="75"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="64"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -1945,27 +1915,27 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="23" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="81"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="70"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1973,7 +1943,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1984,14 +1954,14 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="10"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="81"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="70"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1999,7 +1969,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2010,14 +1980,14 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="81"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="70"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -2025,7 +1995,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2040,10 +2010,10 @@
         <v>16</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="92"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="80"/>
     </row>
     <row r="16" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -2051,7 +2021,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2064,10 +2034,10 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -2082,18 +2052,18 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="76" t="s">
+      <c r="M17" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="76" t="s">
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="77"/>
-      <c r="T17" s="78"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="67"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
@@ -2103,23 +2073,23 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="66"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="85"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
@@ -2129,15 +2099,15 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2150,185 +2120,185 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
       <c r="V20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="68"/>
-      <c r="V22" s="68"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
     </row>
     <row r="24" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
     </row>
     <row r="26" spans="1:22" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -2360,21 +2330,21 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2384,27 +2354,27 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="69" t="s">
+      <c r="F29" s="56"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="69" t="s">
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2414,21 +2384,21 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -2438,27 +2408,27 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="69"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="69" t="s">
+      <c r="M31" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -2469,19 +2439,19 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="50" t="s">
+      <c r="I32" s="43"/>
+      <c r="J32" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
       <c r="Q32" s="4" t="s">
         <v>66</v>
       </c>
@@ -2525,12 +2495,19 @@
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="M9:Q10"/>
     <mergeCell ref="F11:P11"/>
-    <mergeCell ref="S12:V12"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="A20:U20"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="S15:V15"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="S6:V6"/>
     <mergeCell ref="M17:Q17"/>
@@ -2541,26 +2518,19 @@
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="S7:V8"/>
     <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="D22:V22"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="C25:V25"/>
+    <mergeCell ref="C21:V21"/>
     <mergeCell ref="M31:S31"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="M30:S30"/>
     <mergeCell ref="C23:V23"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:T18"/>
     <mergeCell ref="A26:V26"/>
-    <mergeCell ref="D22:V22"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="C25:V25"/>
-    <mergeCell ref="C21:V21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -2570,11 +2540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="U6" sqref="U6:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2621,504 +2591,478 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="10"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="134" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="134" t="s">
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="135" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="134" t="s">
+      <c r="O2" s="119"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="135"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="134" t="s">
+      <c r="R2" s="119"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="136"/>
-    </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="137" t="s">
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="120"/>
+    </row>
+    <row r="3" spans="1:23" s="24" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="14" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="120"/>
+      <c r="I3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="J3" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="141" t="s">
+      <c r="K3" s="119"/>
+      <c r="L3" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="142"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="126"/>
+      <c r="N3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="134" t="s">
+      <c r="O3" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="13" t="s">
+      <c r="P3" s="120"/>
+      <c r="Q3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="136"/>
-      <c r="T3" s="13" t="s">
+      <c r="S3" s="120"/>
+      <c r="T3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="134" t="s">
+      <c r="U3" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="135"/>
-      <c r="W3" s="136"/>
-    </row>
-    <row r="4" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132">
-        <v>1</v>
-      </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132">
-        <v>2</v>
-      </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="29">
-        <v>3</v>
-      </c>
-      <c r="G4" s="133">
-        <v>4</v>
-      </c>
-      <c r="H4" s="133"/>
-      <c r="I4" s="30">
-        <v>5</v>
-      </c>
-      <c r="J4" s="132">
-        <v>6</v>
-      </c>
-      <c r="K4" s="132"/>
-      <c r="L4" s="133">
-        <v>7</v>
-      </c>
-      <c r="M4" s="133"/>
-      <c r="N4" s="30">
-        <v>8</v>
-      </c>
-      <c r="O4" s="133">
-        <v>9</v>
-      </c>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="30">
-        <v>10</v>
-      </c>
-      <c r="R4" s="133">
-        <v>11</v>
-      </c>
-      <c r="S4" s="133"/>
-      <c r="T4" s="29">
-        <v>12</v>
-      </c>
-      <c r="U4" s="132">
-        <v>13</v>
-      </c>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-    </row>
-    <row r="5" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="39"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="120"/>
+    </row>
+    <row r="4" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+    </row>
+    <row r="5" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="129"/>
       <c r="H5" s="130"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="111"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="102"/>
       <c r="L5" s="131"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="34"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="130"/>
       <c r="P5" s="130"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-    </row>
-    <row r="6" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="122"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-    </row>
-    <row r="7" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="111"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="112"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="107"/>
-    </row>
-    <row r="8" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="111"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="107"/>
-    </row>
-    <row r="9" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="122"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-    </row>
-    <row r="10" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="122"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="122"/>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-    </row>
-    <row r="11" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-    </row>
-    <row r="12" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-    </row>
-    <row r="13" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="122"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-    </row>
-    <row r="14" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-    </row>
-    <row r="15" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
-      <c r="W15" s="121"/>
-    </row>
-    <row r="16" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-      <c r="W16" s="121"/>
-    </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="119"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="121"/>
-      <c r="V17" s="121"/>
-      <c r="W17" s="121"/>
-    </row>
-    <row r="18" spans="1:23" s="31" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="116" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="114"/>
+    </row>
+    <row r="6" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="114"/>
+      <c r="V6" s="114"/>
+      <c r="W6" s="114"/>
+    </row>
+    <row r="7" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="98"/>
+    </row>
+    <row r="8" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="98"/>
+    </row>
+    <row r="9" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="114"/>
+      <c r="V9" s="114"/>
+      <c r="W9" s="114"/>
+    </row>
+    <row r="10" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+    </row>
+    <row r="11" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="114"/>
+    </row>
+    <row r="12" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="115"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="114"/>
+    </row>
+    <row r="13" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="115"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+    </row>
+    <row r="14" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114"/>
+      <c r="W14" s="114"/>
+    </row>
+    <row r="15" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114"/>
+      <c r="W15" s="114"/>
+    </row>
+    <row r="16" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+    </row>
+    <row r="17" spans="1:23" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+    </row>
+    <row r="18" spans="1:23" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="107"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="98"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -3129,7 +3073,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3156,7 +3100,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3183,48 +3127,48 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="69" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -3238,19 +3182,19 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -3263,21 +3207,21 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="69" t="s">
+      <c r="K24" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -3288,25 +3232,25 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="49" t="s">
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="139"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="147" t="s">
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="W25" s="147"/>
+      <c r="W25" s="138"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -3317,18 +3261,18 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="69" t="s">
+      <c r="I26" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
     </row>
     <row r="27" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -3349,12 +3293,20 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="W27" s="17" t="s">
+      <c r="W27" s="14" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="139">
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="V25:W25"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="K24:W24"/>
@@ -3369,16 +3321,8 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="U4:W4"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="U9:W9"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
@@ -3392,7 +3336,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O9:P9"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="A6:B6"/>
@@ -3402,27 +3345,18 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="U10:W10"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="U11:W11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="G12:H12"/>
@@ -3432,16 +3366,13 @@
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="J15:K15"/>
@@ -3452,17 +3383,14 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="G17:H17"/>
@@ -3484,7 +3412,9 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="R11:S11"/>
-    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="I26:R26"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="R8:S8"/>
@@ -3494,6 +3424,20 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="K22:W22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3503,7 +3447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
@@ -3576,7 +3520,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3630,27 +3574,27 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="152"/>
-      <c r="AE3" s="152"/>
-      <c r="AF3" s="152"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
     </row>
     <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -3664,29 +3608,29 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
     </row>
     <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3702,27 +3646,27 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="153"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="144"/>
     </row>
     <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -3736,29 +3680,29 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
     </row>
     <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -3771,109 +3715,109 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="153"/>
-      <c r="U7" s="153"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
-      <c r="AB7" s="153"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="153"/>
-      <c r="AF7" s="153"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="144"/>
+      <c r="X7" s="144"/>
+      <c r="Y7" s="144"/>
+      <c r="Z7" s="144"/>
+      <c r="AA7" s="144"/>
+      <c r="AB7" s="144"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="144"/>
+      <c r="AF7" s="144"/>
     </row>
     <row r="8" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
     </row>
     <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="154" t="s">
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="143"/>
+      <c r="AB9" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="52" t="s">
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="1"/>
@@ -3908,286 +3852,286 @@
     </row>
     <row r="11" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="141"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="141"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="69" t="s">
+      <c r="M12" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="69" t="s">
+      <c r="U14" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
+      <c r="S15" s="141"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="141"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="141"/>
+      <c r="X15" s="141"/>
+      <c r="Y15" s="141"/>
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="141"/>
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="141"/>
     </row>
     <row r="16" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="69" t="s">
+      <c r="M16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="69" t="s">
+      <c r="U16" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="141"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="141"/>
+      <c r="X17" s="141"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="141"/>
+      <c r="AA17" s="141"/>
+      <c r="AB17" s="141"/>
+      <c r="AC17" s="141"/>
     </row>
     <row r="18" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="69" t="s">
+      <c r="U18" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -4216,21 +4160,21 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="150"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="22" t="s">
+      <c r="V19" s="1"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AA19" s="150"/>
-      <c r="AB19" s="150"/>
-      <c r="AC19" s="150"/>
-      <c r="AD19" s="150"/>
-      <c r="AE19" s="149" t="s">
+      <c r="AA19" s="140"/>
+      <c r="AB19" s="140"/>
+      <c r="AC19" s="140"/>
+      <c r="AD19" s="140"/>
+      <c r="AE19" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="AF19" s="149"/>
+      <c r="AF19" s="142"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -4256,8 +4200,8 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -4265,7 +4209,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="24"/>
+      <c r="AE20" s="21"/>
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
@@ -4340,7 +4284,7 @@
     </row>
     <row r="23" spans="1:32" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="1"/>
@@ -4372,205 +4316,205 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="20"/>
+      <c r="AF23" s="17"/>
     </row>
     <row r="24" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="141"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="141"/>
+      <c r="AA24" s="141"/>
+      <c r="AB24" s="141"/>
+      <c r="AC24" s="141"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="69" t="s">
+      <c r="M25" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="69" t="s">
+      <c r="U25" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="141"/>
+      <c r="Z26" s="141"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="141"/>
+      <c r="AC26" s="141"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="69" t="s">
+      <c r="M27" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="69" t="s">
+      <c r="U27" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="141"/>
+      <c r="Y28" s="141"/>
+      <c r="Z28" s="141"/>
+      <c r="AA28" s="141"/>
+      <c r="AB28" s="141"/>
+      <c r="AC28" s="141"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="69" t="s">
+      <c r="M29" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="69" t="s">
+      <c r="U29" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
@@ -4610,28 +4554,28 @@
       <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D31" s="17"/>
-      <c r="F31" s="54" t="s">
+      <c r="D31" s="14"/>
+      <c r="F31" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="53"/>
-      <c r="H31" s="55" t="s">
+      <c r="G31" s="48"/>
+      <c r="H31" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="19" t="s">
+      <c r="I31" s="50"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T31" s="19"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -4668,126 +4612,124 @@
       <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
     </row>
     <row r="34" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="151"/>
-      <c r="V34" s="151"/>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="151"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="141"/>
+      <c r="V34" s="141"/>
+      <c r="W34" s="141"/>
+      <c r="X34" s="141"/>
+      <c r="Y34" s="141"/>
+      <c r="Z34" s="141"/>
+      <c r="AA34" s="141"/>
+      <c r="AB34" s="141"/>
+      <c r="AC34" s="141"/>
     </row>
     <row r="35" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="69" t="s">
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="69" t="s">
+      <c r="U35" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="56"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="55" t="s">
+      <c r="G36" s="48"/>
+      <c r="H36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="19" t="s">
+      <c r="I36" s="50"/>
+      <c r="J36" s="141"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+      <c r="O36" s="141"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="141"/>
+      <c r="S36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="57"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="50"/>
     </row>
     <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
@@ -4830,6 +4772,10 @@
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="M34:S34"/>
     <mergeCell ref="M35:S35"/>
+    <mergeCell ref="U26:AC26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="U27:AC27"/>
     <mergeCell ref="U35:AC35"/>
     <mergeCell ref="E28:K28"/>
     <mergeCell ref="M28:S28"/>
@@ -4839,18 +4785,7 @@
     <mergeCell ref="U29:AC29"/>
     <mergeCell ref="E34:K34"/>
     <mergeCell ref="E35:K35"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="U26:AC26"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="U27:AC27"/>
     <mergeCell ref="U34:AC34"/>
-    <mergeCell ref="U18:AC18"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="U15:AC15"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="U17:AC17"/>
-    <mergeCell ref="U16:AC16"/>
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="U12:AC12"/>
     <mergeCell ref="E12:K12"/>
@@ -4869,7 +4804,6 @@
     <mergeCell ref="L6:AF6"/>
     <mergeCell ref="I8:AF8"/>
     <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="M24:S24"/>
     <mergeCell ref="J31:O31"/>
     <mergeCell ref="E15:K15"/>
     <mergeCell ref="E17:K17"/>
@@ -4879,16 +4813,24 @@
     <mergeCell ref="E25:K25"/>
     <mergeCell ref="M18:S18"/>
     <mergeCell ref="E26:K26"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="M26:S26"/>
     <mergeCell ref="E14:K14"/>
     <mergeCell ref="M14:S14"/>
     <mergeCell ref="U14:AC14"/>
     <mergeCell ref="M16:S16"/>
     <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="U18:AC18"/>
+    <mergeCell ref="U15:AC15"/>
+    <mergeCell ref="U17:AC17"/>
+    <mergeCell ref="U16:AC16"/>
     <mergeCell ref="U25:AC25"/>
     <mergeCell ref="AA19:AD19"/>
     <mergeCell ref="U24:AC24"/>
     <mergeCell ref="X19:Y19"/>
     <mergeCell ref="M25:S25"/>
+    <mergeCell ref="M24:S24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
